--- a/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务汇总.xlsx
+++ b/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务汇总.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t xml:space="preserve">区域</t>
   </si>
   <si>
+    <t xml:space="preserve">计划名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计划时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">任务名</t>
   </si>
   <si>
@@ -38,22 +44,70 @@
     <t xml:space="preserve">昭化区</t>
   </si>
   <si>
+    <t xml:space="preserve">Donald测试计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01至2018-10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">除草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技术服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-08至2018-10-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">浇水</t>
   </si>
   <si>
-    <t xml:space="preserve">技术服务</t>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%</t>
+    <t xml:space="preserve">移栽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旺苍县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">总计：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33%</t>
   </si>
 </sst>
 </file>
@@ -134,45 +188,173 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务汇总.xlsx
+++ b/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务汇总.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t xml:space="preserve">区域</t>
   </si>
@@ -92,22 +92,16 @@
     <t xml:space="preserve">67%</t>
   </si>
   <si>
-    <t xml:space="preserve">旺苍县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">总计：</t>
   </si>
   <si>
-    <t xml:space="preserve">24</t>
+    <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">33%</t>
+    <t xml:space="preserve">42%</t>
   </si>
 </sst>
 </file>
@@ -315,46 +309,17 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务汇总.xlsx
+++ b/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务汇总.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t xml:space="preserve">区域</t>
   </si>
@@ -44,64 +44,82 @@
     <t xml:space="preserve">昭化区</t>
   </si>
   <si>
-    <t xml:space="preserve">Donald测试计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-01至2018-10-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">除草</t>
+    <t xml:space="preserve">普通任务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-20至2019-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浇水</t>
   </si>
   <si>
     <t xml:space="preserve">技术服务</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移栽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">100%</t>
   </si>
   <si>
-    <t xml:space="preserve">测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-08至2018-10-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浇水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">打赢脱贫攻坚战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政策宣传</t>
   </si>
   <si>
     <t xml:space="preserve">0%</t>
   </si>
   <si>
+    <t xml:space="preserve">旺苍任务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-01至2019-03-31</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">移栽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67%</t>
+    <t xml:space="preserve">面积落实</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旺苍县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行政部测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物资发放	</t>
   </si>
   <si>
     <t xml:space="preserve">总计：</t>
   </si>
   <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42%</t>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22%</t>
   </si>
 </sst>
 </file>
@@ -209,13 +227,13 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -223,28 +241,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -258,22 +276,22 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -281,45 +299,161 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
